--- a/test1.xlsx
+++ b/test1.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,344 +399,310 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>斥资14.95亿再换22.99%股权，TCL看中奥马电器什么？</v>
+        <v>“声意” 不好做</v>
       </c>
       <c r="B2" t="str">
         <v>产业观察</v>
       </c>
       <c r="C2" t="str">
-        <v>BT财经</v>
+        <v>毒眸</v>
       </c>
       <c r="D2" t="str">
-        <v>51秒前</v>
+        <v>6分钟前</v>
       </c>
       <c r="E2" t="str">
-        <v>https://36kr.com/p/1362700763857289</v>
+        <v>https://36kr.com/p/1399475584383752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0.89亿女性脱发，但女性植发的需求不只来自「治脱」</v>
+        <v>元宇宙漫游手册：新经济，新产业</v>
       </c>
       <c r="B3" t="str">
-        <v>年轻人啊</v>
+        <v>产业观察</v>
       </c>
       <c r="C3" t="str">
-        <v>明亮公司</v>
+        <v>MetaverseSpace</v>
       </c>
       <c r="D3" t="str">
-        <v>10分钟前</v>
+        <v>8分钟前</v>
       </c>
       <c r="E3" t="str">
-        <v>https://36kr.com/p/1362708421607816</v>
+        <v>https://36kr.com/p/1399298052736135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>新能源汽车的黑色八月：蔚来、特斯拉陷入漩涡，理想破发</v>
+        <v>iPhone 13降价，苹果没有梦想</v>
       </c>
       <c r="B4" t="str">
-        <v>新能源车</v>
+        <v>王者苹果？</v>
       </c>
       <c r="C4" t="str">
-        <v>DoNews</v>
+        <v>字母榜</v>
       </c>
       <c r="D4" t="str">
-        <v>20分钟前</v>
+        <v>15分钟前</v>
       </c>
       <c r="E4" t="str">
-        <v>https://36kr.com/p/1362760207974792</v>
+        <v>https://36kr.com/p/1399409681023875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>国际化宣发、支持行业顶级技术，国产游戏《黑神话：悟空》隐隐有爆款相</v>
+        <v>在线教育的出海与新航线</v>
       </c>
       <c r="B5" t="str">
-        <v>手游+电竞=下一个风口？</v>
+        <v>全民教育</v>
       </c>
       <c r="C5" t="str">
-        <v>36氪的朋友们</v>
+        <v>多知网</v>
       </c>
       <c r="D5" t="str">
-        <v>29分钟前</v>
+        <v>17分钟前</v>
       </c>
       <c r="E5" t="str">
-        <v>https://36kr.com/p/1362753521452167</v>
+        <v>https://36kr.com/p/1399387446950919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>山寨机永远有市场：是杂牌，还是骗子？</v>
+        <v>36氪首发 | 企业微信服务商「卫瓴科技」获得数千万元Pre-A轮融资，想要改变B2B销售流程</v>
       </c>
       <c r="B6" t="str">
-        <v>手机厂商成长的烦恼</v>
+        <v>36氪首发</v>
       </c>
       <c r="C6" t="str">
-        <v>36氪的朋友们</v>
+        <v>华商韬略</v>
       </c>
       <c r="D6" t="str">
-        <v>40分钟前</v>
+        <v>21小时前</v>
       </c>
       <c r="E6" t="str">
-        <v>https://36kr.com/p/1362751470634369</v>
+        <v>https://36kr.com/p/1399521501346820</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>中国电信A股正式挂牌上市，盘中涨超16%，市值超4800亿元</v>
+        <v>基金圈“追星”修罗场：脱粉来得太快，就像龙卷风</v>
       </c>
       <c r="B7" t="str">
-        <v>A股</v>
+        <v>创投观察</v>
       </c>
       <c r="C7" t="str">
-        <v>36氪的朋友们</v>
+        <v>王与桐</v>
       </c>
       <c r="D7" t="str">
-        <v>45分钟前</v>
+        <v>19分钟前</v>
       </c>
       <c r="E7" t="str">
-        <v>https://36kr.com/p/1362748541715840</v>
+        <v>https://36kr.com/p/1399381651161992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>进化十多年，四足机器人的网红属性有改变吗？</v>
+        <v>20岁，如何让10块变成100万？</v>
       </c>
       <c r="B8" t="str">
-        <v>人工智能·AI</v>
+        <v>氪约</v>
       </c>
       <c r="C8" t="str">
-        <v>氪星研究所</v>
+        <v>《财经》新媒体</v>
       </c>
       <c r="D8" t="str">
-        <v>2021-08-18</v>
+        <v>19分钟前</v>
       </c>
       <c r="E8" t="str">
-        <v>https://36kr.com/p/1362712990696585</v>
+        <v>https://36kr.com/p/1398275574250501</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>猝不及防，震撼登场：马斯克公布特斯拉人形机器人，还揭秘了自动驾驶为什么可以只用摄像头</v>
+        <v>攻增量、守存量，品牌如何向新演进？| 向新力</v>
       </c>
       <c r="B9" t="str">
-        <v>人工智能·AI</v>
+        <v>其他</v>
       </c>
       <c r="C9" t="str">
-        <v>脑极体</v>
+        <v>氪约</v>
       </c>
       <c r="D9" t="str">
-        <v>55分钟前</v>
+        <v>22分钟前</v>
       </c>
       <c r="E9" t="str">
-        <v>https://36kr.com/p/1362749484482945</v>
+        <v>https://36kr.com/p/1397728254360327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>财富的最高形式是什么？反正不是钱</v>
+        <v>关于东南亚的历史性机遇，今年中国—东盟跨境出海高峰论坛会上都说了什么？</v>
       </c>
       <c r="B10" t="str">
-        <v>神译局</v>
+        <v>华为新动向</v>
       </c>
       <c r="C10" t="str">
-        <v>物联网智库</v>
+        <v>科技小辛</v>
       </c>
       <c r="D10" t="str">
-        <v>59分钟前</v>
+        <v>6小时前</v>
       </c>
       <c r="E10" t="str">
-        <v>https://36kr.com/p/1352815320924804</v>
+        <v>https://36kr.com/p/1399513265142786</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>垃圾焚烧怎么转化出更多电能？「潍睿科技」让发电厂从进口“细粮”改吃国产“粗粮”</v>
+        <v>大举进军智慧办公领域，华为靠的是什么？</v>
       </c>
       <c r="B11" t="str">
-        <v>社交正流行</v>
+        <v>消费电子</v>
       </c>
       <c r="C11" t="str">
-        <v>神译局</v>
+        <v>时氪分享</v>
       </c>
       <c r="D11" t="str">
-        <v>1小时前</v>
+        <v>8小时前</v>
       </c>
       <c r="E11" t="str">
-        <v>https://36kr.com/p/1350032956827392</v>
+        <v>https://36kr.com/p/1398376109357827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>线上七夕过完分，视频聊天缺点啥？</v>
+        <v>品胜成为共享充电宝搅局者，但未来还不明朗</v>
       </c>
       <c r="B12" t="str">
-        <v>创投新闻</v>
+        <v>企业服务</v>
       </c>
       <c r="C12" t="str">
-        <v>财经无忌</v>
+        <v>三易生活</v>
       </c>
       <c r="D12" t="str">
-        <v>2021-08-11</v>
+        <v>23分钟前</v>
       </c>
       <c r="E12" t="str">
-        <v>https://36kr.com/p/1355788148966016</v>
+        <v>https://36kr.com/p/1398988309166848</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>国外创投新闻 | 加拿大科技公司「Highstreet」获500万美元融资，从VR和NFT切入商业元宇宙</v>
+        <v>涂鸦智能亚太大区总经理罗志军：物联网时代转型给新的市场带来巨大机遇｜中国-东盟跨境出海高峰论坛</v>
       </c>
       <c r="B13" t="str">
-        <v>新能源车</v>
+        <v>新生活LIFESTYLE</v>
       </c>
       <c r="C13" t="str">
-        <v>人人都是产品经理</v>
+        <v>三易生活</v>
       </c>
       <c r="D13" t="str">
-        <v>3小时前</v>
+        <v>29分钟前</v>
       </c>
       <c r="E13" t="str">
-        <v>https://36kr.com/p/1361284223435908</v>
+        <v>https://36kr.com/p/1399501008796674</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>蔚来车主反对蔚来车主</v>
+        <v>受新冠后遗症困扰的日本上班族在增加</v>
       </c>
       <c r="B14" t="str">
-        <v>产业观察</v>
+        <v>汽车出行</v>
       </c>
       <c r="C14" t="str">
-        <v>王杰西</v>
+        <v>时氪分享</v>
       </c>
       <c r="D14" t="str">
-        <v>1小时前</v>
+        <v>39分钟前</v>
       </c>
       <c r="E14" t="str">
-        <v>https://36kr.com/p/1362699829544067</v>
+        <v>https://36kr.com/p/1399277986036737</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Windows 11 即将发布，微软“强推” Edge 浏览器？</v>
+        <v>双车战略，造福了消费者还是喂饱了外企？</v>
       </c>
       <c r="B15" t="str">
-        <v>潮科技</v>
+        <v>职场每周必读</v>
       </c>
       <c r="C15" t="str">
-        <v>智驾网</v>
+        <v>日经中文网</v>
       </c>
       <c r="D15" t="str">
-        <v>1小时前</v>
+        <v>39分钟前</v>
       </c>
       <c r="E15" t="str">
-        <v>https://36kr.com/p/1362694807651463</v>
+        <v>https://36kr.com/p/1399149329384577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>迷惑，奶牛走直线、用指尖发电……搞这些研究的人是工作不饱和吗？</v>
+        <v>中年失业，去卖保险？</v>
       </c>
       <c r="B16" t="str">
-        <v>互联网新鲜事</v>
+        <v>食品饮料</v>
       </c>
       <c r="C16" t="str">
-        <v>CSDN</v>
+        <v>雷科技</v>
       </c>
       <c r="D16" t="str">
-        <v>1小时前</v>
+        <v>46分钟前</v>
       </c>
       <c r="E16" t="str">
-        <v>https://36kr.com/p/1362682800751748</v>
+        <v>https://36kr.com/p/1399386181008132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>刷屏“互联网民工”的，大多都是“互联网亚逼”</v>
+        <v>RIO下沉之困：“撩”不动小城青年，守不住夜店市场</v>
       </c>
       <c r="B17" t="str">
-        <v>关于消费的一切</v>
+        <v>创投观察</v>
       </c>
       <c r="C17" t="str">
-        <v>果壳</v>
+        <v>亿欧网</v>
       </c>
       <c r="D17" t="str">
-        <v>1小时前</v>
+        <v>48分钟前</v>
       </c>
       <c r="E17" t="str">
-        <v>https://36kr.com/p/1361116374517121</v>
+        <v>https://36kr.com/p/1399379869074561</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>富贵鸟退市、达芙妮缩水，奥康有机会破而后立吗？</v>
+        <v>重磅解读，全球供应链困局的成因与解药</v>
       </c>
       <c r="B18" t="str">
-        <v>最前线</v>
+        <v>神译局</v>
       </c>
       <c r="C18" t="str">
-        <v>互联网指北</v>
+        <v>《财经》新媒体</v>
       </c>
       <c r="D18" t="str">
-        <v>1小时前</v>
+        <v>51分钟前</v>
       </c>
       <c r="E18" t="str">
-        <v>https://36kr.com/p/1362630865748611</v>
+        <v>https://36kr.com/p/1399308685359876</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>最前线 | 疫情打乱越南工厂计划，AirPods 3 移回国内生产</v>
-      </c>
-      <c r="B19" t="str">
-        <v>潮科技</v>
+        <v>蝙蝠侠和黑豹的服装设计师，是怎样设计口罩的？</v>
       </c>
       <c r="C19" t="str">
-        <v>松果财经</v>
+        <v>中欧商业评论</v>
       </c>
       <c r="D19" t="str">
-        <v>1小时前</v>
+        <v>53分钟前</v>
       </c>
       <c r="E19" t="str">
-        <v>https://36kr.com/p/1362612906427776</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>马斯克发布机器人，“钢铁侠”那种，特斯拉推出全球最快AI计算机，自研芯片那种</v>
-      </c>
-      <c r="B20" t="str">
-        <v>文娱直播新动向</v>
-      </c>
-      <c r="C20" t="str">
-        <v>袁斯来</v>
-      </c>
-      <c r="D20" t="str">
-        <v>1小时前</v>
-      </c>
-      <c r="E20" t="str">
-        <v>https://36kr.com/p/1362631892518021</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>为什么人人都能直播带货了？</v>
-      </c>
-      <c r="C21" t="str">
-        <v>智能车参考</v>
-      </c>
-      <c r="D21" t="str">
-        <v>2小时前</v>
-      </c>
-      <c r="E21" t="str">
-        <v>https://36kr.com/p/1362656500172162</v>
+        <v>https://36kr.com/p/1389495755537412</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
   </ignoredErrors>
 </worksheet>
 </file>